--- a/HW1.xlsx
+++ b/HW1.xlsx
@@ -8,12 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\there\Documents\Spring24\Performance-Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1CDEB0F-9991-479E-88FC-99A8F8C70304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59A9688E-2483-4B17-9EF0-8ADFF323A44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="702" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="21105" tabRatio="702" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HW 1 - Airspeed" sheetId="61" r:id="rId1"/>
+    <sheet name="Question 1" sheetId="62" r:id="rId2"/>
+    <sheet name="Question 2" sheetId="63" r:id="rId3"/>
+    <sheet name="Question 3a" sheetId="64" r:id="rId4"/>
+    <sheet name="Question 3b" sheetId="65" r:id="rId5"/>
+    <sheet name="Question 3c" sheetId="66" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="56">
   <si>
     <t>Altitude</t>
   </si>
@@ -168,6 +173,36 @@
   </si>
   <si>
     <t>Dynamic Pressure / Mach squared (lbs/sq ft)</t>
+  </si>
+  <si>
+    <t>Temperature (°F)</t>
+  </si>
+  <si>
+    <t>Temperature (R)</t>
+  </si>
+  <si>
+    <t>Temperature (°C)</t>
+  </si>
+  <si>
+    <t>Density (slug/ft^3)</t>
+  </si>
+  <si>
+    <t>Specific Weight (lb/ft^3)</t>
+  </si>
+  <si>
+    <t>QMS (lb/ft^2)</t>
+  </si>
+  <si>
+    <t>Pressure (lb/ft^2)</t>
+  </si>
+  <si>
+    <t>Altitude (ft)</t>
+  </si>
+  <si>
+    <t>Speed of Sound (ft/s)</t>
+  </si>
+  <si>
+    <t>Kinematic Viscosity (ft^2/s)</t>
   </si>
 </sst>
 </file>
@@ -334,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -391,6 +426,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,6 +447,5068 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Temperature</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs Altitude</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Rankine</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Question 1'!$A$2:$A$1000</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="999"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Question 1'!$B$2:$B$1000</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="999"/>
+                <c:pt idx="0">
+                  <c:v>518.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>515.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>511.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>504.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>497.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>493.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>490.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>486.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>479.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>475.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>472.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>468.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>465.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>461.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>458.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>454.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>450.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>447.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>443.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>440.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>436.7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>433.1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>429.6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>422.4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>418.9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>415.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>411.7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>408.2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>404.6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>397.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>393.9</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>390.3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>390</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D9A4-4D2B-B347-2C6B4A370819}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Fahrenheit</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Question 1'!$A$2:$A$1000</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="999"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Question 1'!$C$2:$C$1000</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="999"/>
+                <c:pt idx="0">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-5.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-12.3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-15.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-19.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-26.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-30.1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-33.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-37.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-40.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-44.4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-48</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-51.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-55.1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-58.7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-62.2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-65.8</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-69.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-69.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-69.7</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-69.7</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-69.7</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-69.7</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-69.7</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-69.7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-69.7</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-69.7</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-69.7</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-69.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-69.7</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-69.7</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-69.7</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-69.7</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-69.7</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-69.7</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-69.7</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-69.7</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-69.7</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-69.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-69.7</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-69.7</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-69.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D9A4-4D2B-B347-2C6B4A370819}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Celcius</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Question 1'!$A$2:$A$1000</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="999"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Question 1'!$D$2:$D$1000</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="999"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-4.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-6.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-10.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-12.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-14.7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-16.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-18.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-20.7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-22.7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-24.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-26.6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-28.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-30.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-32.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-34.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-36.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-38.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-40.4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-42.4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-44.4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-46.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-48.4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-50.4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-52.3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-54.3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-56.3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-56.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-56.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-56.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-56.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-56.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-56.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-56.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-56.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-56.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-56.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-56.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-56.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-56.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-56.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-56.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-56.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-56.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-56.5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-56.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-56.5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-56.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-56.5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-56.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-56.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D9A4-4D2B-B347-2C6B4A370819}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="412071471"/>
+        <c:axId val="398435599"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="412071471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Altitude</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (ft)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="398435599"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="398435599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Temperature</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" baseline="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="412071471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Temperature</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs Altitude</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Pressure</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Question 1'!$A$2:$A$1000</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="999"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Question 1'!$G$2:$G$1000</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="999"/>
+                <c:pt idx="0">
+                  <c:v>2116.2199999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2040.67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1968.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1896.98</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1826.72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1761.54</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1695.52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1632.24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1572.77</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1512.46</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1454.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1399.88</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1345.92</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1292.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1243.49</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1194.3900000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1146.3599999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1101.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1056.42</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1013.46</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>972.61</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>932.41</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>893.47</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>856.43</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>820.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>785.75</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>751.89</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>718.88</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>688.19</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>657.93</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>628.30999999999995</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>600.79</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>573.28</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>547.04</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>522.28</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>498.16</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>474.67</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>452.45</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>431.07</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>410.97</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>391.71</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>373.3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>355.74</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>339.02</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>323.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>307.91000000000003</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>293.52</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>279.76</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>266.43</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>253.95</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>242.1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>230.67</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>219.88</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>209.51</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>199.77</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>190.25</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>181.36</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>172.9</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>164.85</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>157.02000000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>149.62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A496-4DFB-A5CE-E85707A2FDA5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="412071471"/>
+        <c:axId val="398435599"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="412071471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Altitude</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (ft)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="398435599"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="398435599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>Pressure (lb/ft^2)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="412071471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Temperature</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs Altitude</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Density</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Question 1'!$A$2:$A$1000</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="999"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Question 1'!$H$2:$H$1000</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="999"/>
+                <c:pt idx="0">
+                  <c:v>2.3768399999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3080100000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2413899999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.17548E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1098599999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.04879E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.98628E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9260900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8691700000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8107900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.75486E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.70082E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.64763E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.5946700000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5452899999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4957600000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.44681E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.4010699999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.35413E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.3094300000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.2664799999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.2239799999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.18246E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.14252E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.1033499999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.0655599999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.02826E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.9149000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.5708999999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.2294000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.8909999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.5744E-4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.2545999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.9474999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.6546000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.3678000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.0852000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.7586999999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.4393000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.1390999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.8514000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.5763000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.3140000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.0642999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.8272000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5995999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.3846E-4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.1790000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.9798999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.7934999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.6164999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.4456999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.2845999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.1296999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.9841999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.8418999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.7092000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.5828E-4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.4625E-4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.3456E-4</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.2350000000000001E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-827B-4AB4-A95B-1D9EDB6289FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="412071471"/>
+        <c:axId val="398435599"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="412071471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Altitude</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (ft)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="398435599"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="398435599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>Density (slug/ft^3)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="412071471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>581026</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6627C64-5A6F-EF23-08F3-27A9B365CA5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>581026</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF4A26E4-1782-4E67-AFDC-5F63E85E91E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>581026</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAC00B69-1610-4D13-8325-290232AEFFD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -705,7 +5803,9 @@
   </sheetPr>
   <dimension ref="A2:AH91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1363,4 +6463,4016 @@
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B1AC4C-2A0E-4CF7-BE9C-37723D0FB624}">
+  <dimension ref="A1:O62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" s="30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>ROUND(518.67,1)</f>
+        <v>518.70000000000005</v>
+      </c>
+      <c r="C2">
+        <f>ROUND((B2-459.67),1)</f>
+        <v>59</v>
+      </c>
+      <c r="D2">
+        <f>ROUND(((C2-32)*(5/9)),1)</f>
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <f>ROUND(B2/$B$2,4)</f>
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <f>ROUND(IF(A2&lt;36089,E2^(5.2562),0.223361*EXP(-1*(0.0481/1000)*(A2-36089))),4)</f>
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f>ROUND((F2*2116.22),2)</f>
+        <v>2116.2199999999998</v>
+      </c>
+      <c r="H2">
+        <f>ROUND((G2/(1716.5*B2)),8)</f>
+        <v>2.3768399999999999E-3</v>
+      </c>
+      <c r="I2">
+        <f>ROUND((F2/E2),4)</f>
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <f>ROUND(SQRT(I2),4)</f>
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <f>ROUND((1481.354*F2),1)</f>
+        <v>1481.4</v>
+      </c>
+      <c r="L2">
+        <f>ROUND((H2*32.1740484),4)</f>
+        <v>7.6499999999999999E-2</v>
+      </c>
+      <c r="M2">
+        <f>ROUND(SQRT(1.4*1716.5*B2),2)</f>
+        <v>1116.46</v>
+      </c>
+      <c r="N2">
+        <f>ROUND((M2*(3600/6076.4)),2)</f>
+        <v>661.45</v>
+      </c>
+      <c r="O2">
+        <f>ROUND(((0.226968*(10^-7)*(B2^1.5))/(H2*(B2+198.73))),8)</f>
+        <v>1.5724000000000001E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1000</v>
+      </c>
+      <c r="B3">
+        <f>ROUND(IF(A3&lt;36089,$B$2-(3.566*(A3/1000)),389.99),1)</f>
+        <v>515.1</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C62" si="0">ROUND((B3-459.67),1)</f>
+        <v>55.4</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D62" si="1">ROUND(((C3-32)*(5/9)),1)</f>
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E62" si="2">ROUND(B3/$B$2,4)</f>
+        <v>0.99309999999999998</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F62" si="3">ROUND(IF(A3&lt;36089,E3^(5.2562),0.223361*EXP(-1*(0.0481/1000)*(A3-36089))),4)</f>
+        <v>0.96430000000000005</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G62" si="4">ROUND((F3*2116.22),2)</f>
+        <v>2040.67</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H62" si="5">ROUND((G3/(1716.5*B3)),8)</f>
+        <v>2.3080100000000001E-3</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I62" si="6">ROUND((F3/E3),4)</f>
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J62" si="7">ROUND(SQRT(I3),4)</f>
+        <v>0.98540000000000005</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K62" si="8">ROUND((1481.354*F3),1)</f>
+        <v>1428.5</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L62" si="9">ROUND((H3*32.1740484),4)</f>
+        <v>7.4300000000000005E-2</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M62" si="10">ROUND(SQRT(1.4*1716.5*B3),2)</f>
+        <v>1112.58</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N62" si="11">ROUND((M3*(3600/6076.4)),2)</f>
+        <v>659.15</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O62" si="12">ROUND(((0.226968*(10^-7)*(B3^1.5))/(H3*(B3+198.73))),8)</f>
+        <v>1.6105000000000001E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2000</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B62" si="13">ROUND(IF(A4&lt;36089,$B$2-(3.566*(A4/1000)),389.99),1)</f>
+        <v>511.6</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>51.9</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>11.1</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>0.98629999999999995</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="3"/>
+        <v>0.93010000000000004</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="4"/>
+        <v>1968.3</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="5"/>
+        <v>2.2413899999999998E-3</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="6"/>
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="7"/>
+        <v>0.97109999999999996</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="8"/>
+        <v>1377.8</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="9"/>
+        <v>7.2099999999999997E-2</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="10"/>
+        <v>1108.79</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="11"/>
+        <v>656.91</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="12"/>
+        <v>1.6495999999999999E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3000</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="13"/>
+        <v>508</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>48.3</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>9.1</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>0.97940000000000005</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="3"/>
+        <v>0.89639999999999997</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="4"/>
+        <v>1896.98</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="5"/>
+        <v>2.17548E-3</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="6"/>
+        <v>0.9153</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="7"/>
+        <v>0.95669999999999999</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="8"/>
+        <v>1327.9</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="9"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="10"/>
+        <v>1104.8900000000001</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="11"/>
+        <v>654.6</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="12"/>
+        <v>1.6903E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4000</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="13"/>
+        <v>504.4</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>44.7</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>7.1</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>0.97240000000000004</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="3"/>
+        <v>0.86319999999999997</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="4"/>
+        <v>1826.72</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="5"/>
+        <v>2.1098599999999999E-3</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="6"/>
+        <v>0.88770000000000004</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="7"/>
+        <v>0.94220000000000004</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="8"/>
+        <v>1278.7</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="9"/>
+        <v>6.7900000000000002E-2</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="10"/>
+        <v>1100.96</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="11"/>
+        <v>652.27</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="12"/>
+        <v>1.7332E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5000</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="13"/>
+        <v>500.9</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>41.2</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>0.9657</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>0.83240000000000003</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="4"/>
+        <v>1761.54</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="5"/>
+        <v>2.04879E-3</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="6"/>
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="7"/>
+        <v>0.9284</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="8"/>
+        <v>1233.0999999999999</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="9"/>
+        <v>6.59E-2</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="10"/>
+        <v>1097.1400000000001</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="11"/>
+        <v>650.01</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="12"/>
+        <v>1.7751E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6000</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="13"/>
+        <v>497.3</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>37.6</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>3.1</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>0.9587</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>0.80120000000000002</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="4"/>
+        <v>1695.52</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="5"/>
+        <v>1.98628E-3</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="6"/>
+        <v>0.8357</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="7"/>
+        <v>0.91420000000000001</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="8"/>
+        <v>1186.9000000000001</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="9"/>
+        <v>6.3899999999999998E-2</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="10"/>
+        <v>1093.19</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="11"/>
+        <v>647.66999999999996</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="12"/>
+        <v>1.8206E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7000</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="13"/>
+        <v>493.7</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>0.95179999999999998</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>0.77129999999999999</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>1632.24</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="5"/>
+        <v>1.9260900000000001E-3</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="6"/>
+        <v>0.81040000000000001</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="7"/>
+        <v>0.9002</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="8"/>
+        <v>1142.5999999999999</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="9"/>
+        <v>6.2E-2</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="10"/>
+        <v>1089.22</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="11"/>
+        <v>645.30999999999995</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="12"/>
+        <v>1.8667999999999999E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8000</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="13"/>
+        <v>490.2</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>30.5</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>-0.8</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>0.94510000000000005</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>0.74319999999999997</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>1572.77</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="5"/>
+        <v>1.8691700000000001E-3</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="6"/>
+        <v>0.78639999999999999</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="7"/>
+        <v>0.88680000000000003</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="8"/>
+        <v>1100.9000000000001</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="9"/>
+        <v>6.0100000000000001E-2</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="10"/>
+        <v>1085.3599999999999</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="11"/>
+        <v>643.03</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="12"/>
+        <v>1.9128999999999999E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9000</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="13"/>
+        <v>486.6</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>26.9</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>-2.8</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>0.93810000000000004</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>0.7147</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>1512.46</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="5"/>
+        <v>1.8107900000000001E-3</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="6"/>
+        <v>0.76190000000000002</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="7"/>
+        <v>0.87290000000000001</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="8"/>
+        <v>1058.7</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="9"/>
+        <v>5.8299999999999998E-2</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="10"/>
+        <v>1081.3599999999999</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="11"/>
+        <v>640.66</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="12"/>
+        <v>1.9631999999999999E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10000</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="13"/>
+        <v>483</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>23.3</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>-4.8</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>0.93120000000000003</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>0.6875</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>1454.9</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="5"/>
+        <v>1.75486E-3</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="6"/>
+        <v>0.73829999999999996</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="7"/>
+        <v>0.85919999999999996</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="8"/>
+        <v>1018.4</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="9"/>
+        <v>5.6500000000000002E-2</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="10"/>
+        <v>1077.3599999999999</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="11"/>
+        <v>638.29</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="12"/>
+        <v>2.0138999999999999E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11000</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="13"/>
+        <v>479.5</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>19.8</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>-6.8</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>0.9244</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>0.66149999999999998</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>1399.88</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="5"/>
+        <v>1.70082E-3</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="6"/>
+        <v>0.71560000000000001</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="7"/>
+        <v>0.84589999999999999</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="8"/>
+        <v>979.9</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="9"/>
+        <v>5.4699999999999999E-2</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="10"/>
+        <v>1073.45</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="11"/>
+        <v>635.97</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="12"/>
+        <v>2.0659000000000001E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12000</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="13"/>
+        <v>475.9</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>16.2</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>0.91749999999999998</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>1345.92</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="5"/>
+        <v>1.64763E-3</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="6"/>
+        <v>0.69320000000000004</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="7"/>
+        <v>0.83260000000000001</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="8"/>
+        <v>942.1</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="9"/>
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="10"/>
+        <v>1069.4100000000001</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="11"/>
+        <v>633.58000000000004</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="12"/>
+        <v>2.1199000000000001E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13000</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="13"/>
+        <v>472.3</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>12.6</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>-10.8</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>0.91049999999999998</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>0.6109</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="4"/>
+        <v>1292.8</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="5"/>
+        <v>1.5946700000000001E-3</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="6"/>
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="7"/>
+        <v>0.81910000000000005</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="8"/>
+        <v>905</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="9"/>
+        <v>5.1299999999999998E-2</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="10"/>
+        <v>1065.3599999999999</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="11"/>
+        <v>631.17999999999995</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="12"/>
+        <v>2.1771E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14000</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="13"/>
+        <v>468.8</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>9.1</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>-12.7</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>0.90380000000000005</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>0.58760000000000001</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="4"/>
+        <v>1243.49</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="5"/>
+        <v>1.5452899999999999E-3</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="6"/>
+        <v>0.65010000000000001</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="7"/>
+        <v>0.80630000000000002</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="8"/>
+        <v>870.4</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="9"/>
+        <v>4.9700000000000001E-2</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="10"/>
+        <v>1061.4000000000001</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="11"/>
+        <v>628.83000000000004</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="12"/>
+        <v>2.2334000000000001E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15000</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="13"/>
+        <v>465.2</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>-14.7</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>0.89690000000000003</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>0.56440000000000001</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="4"/>
+        <v>1194.3900000000001</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="5"/>
+        <v>1.4957600000000001E-3</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="6"/>
+        <v>0.62929999999999997</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="7"/>
+        <v>0.79330000000000001</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="8"/>
+        <v>836.1</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="9"/>
+        <v>4.8099999999999997E-2</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="10"/>
+        <v>1057.32</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="11"/>
+        <v>626.41999999999996</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="12"/>
+        <v>2.2932000000000001E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16000</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="13"/>
+        <v>461.6</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>1.9</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>-16.7</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>0.88990000000000002</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>0.54169999999999996</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="4"/>
+        <v>1146.3599999999999</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="5"/>
+        <v>1.44681E-3</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="6"/>
+        <v>0.60870000000000002</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="7"/>
+        <v>0.7802</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="8"/>
+        <v>802.4</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="9"/>
+        <v>4.65E-2</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="10"/>
+        <v>1053.22</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="11"/>
+        <v>623.99</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="12"/>
+        <v>2.3561E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17000</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="13"/>
+        <v>458.1</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>-1.6</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>-18.7</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>0.88319999999999999</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>0.52059999999999995</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="4"/>
+        <v>1101.7</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="5"/>
+        <v>1.4010699999999999E-3</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="6"/>
+        <v>0.58940000000000003</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="7"/>
+        <v>0.76770000000000005</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="8"/>
+        <v>771.2</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="9"/>
+        <v>4.5100000000000001E-2</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="10"/>
+        <v>1049.22</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="11"/>
+        <v>621.62</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="12"/>
+        <v>2.4182000000000001E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18000</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="13"/>
+        <v>454.5</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>-5.2</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>-20.7</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>0.87619999999999998</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="3"/>
+        <v>0.49919999999999998</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="4"/>
+        <v>1056.42</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="5"/>
+        <v>1.35413E-3</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="6"/>
+        <v>0.56969999999999998</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="7"/>
+        <v>0.75480000000000003</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="8"/>
+        <v>739.5</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="9"/>
+        <v>4.36E-2</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="10"/>
+        <v>1045.0899999999999</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="11"/>
+        <v>619.16999999999996</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="12"/>
+        <v>2.4862000000000002E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19000</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="13"/>
+        <v>450.9</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>-22.7</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>0.86929999999999996</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="3"/>
+        <v>0.47889999999999999</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="4"/>
+        <v>1013.46</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="5"/>
+        <v>1.3094300000000001E-3</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="6"/>
+        <v>0.55089999999999995</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="7"/>
+        <v>0.74219999999999997</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="8"/>
+        <v>709.4</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="9"/>
+        <v>4.2099999999999999E-2</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="10"/>
+        <v>1040.94</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="11"/>
+        <v>616.71</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="12"/>
+        <v>2.5546999999999999E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20000</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="13"/>
+        <v>447.4</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>-12.3</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>-24.6</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="3"/>
+        <v>0.45960000000000001</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="4"/>
+        <v>972.61</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="5"/>
+        <v>1.2664799999999999E-3</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="6"/>
+        <v>0.53290000000000004</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="7"/>
+        <v>0.73</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="8"/>
+        <v>680.8</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="9"/>
+        <v>4.07E-2</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="10"/>
+        <v>1036.8900000000001</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="11"/>
+        <v>614.30999999999995</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="12"/>
+        <v>2.6247999999999999E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21000</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="13"/>
+        <v>443.8</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>-15.9</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>-26.6</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>0.85560000000000003</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="3"/>
+        <v>0.44059999999999999</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="4"/>
+        <v>932.41</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="5"/>
+        <v>1.2239799999999999E-3</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="6"/>
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="7"/>
+        <v>0.71760000000000002</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="8"/>
+        <v>652.70000000000005</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="9"/>
+        <v>3.9399999999999998E-2</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="10"/>
+        <v>1032.71</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="11"/>
+        <v>611.84</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="12"/>
+        <v>2.6981999999999999E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22000</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="13"/>
+        <v>440.2</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>-19.5</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>-28.6</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>0.84870000000000001</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="3"/>
+        <v>0.42220000000000002</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="4"/>
+        <v>893.47</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="5"/>
+        <v>1.18246E-3</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="6"/>
+        <v>0.4975</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="7"/>
+        <v>0.70530000000000004</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="8"/>
+        <v>625.4</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="9"/>
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="10"/>
+        <v>1028.52</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="11"/>
+        <v>609.35</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="12"/>
+        <v>2.7745999999999999E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23000</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="13"/>
+        <v>436.7</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>-23</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>-30.6</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="2"/>
+        <v>0.84189999999999998</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="3"/>
+        <v>0.4047</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="4"/>
+        <v>856.43</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="5"/>
+        <v>1.14252E-3</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="6"/>
+        <v>0.48070000000000002</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="7"/>
+        <v>0.69330000000000003</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="8"/>
+        <v>599.5</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="9"/>
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="10"/>
+        <v>1024.42</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="11"/>
+        <v>606.91999999999996</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="12"/>
+        <v>2.853E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24000</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="13"/>
+        <v>433.1</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>-26.6</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>-32.6</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="2"/>
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="3"/>
+        <v>0.3876</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="4"/>
+        <v>820.25</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="5"/>
+        <v>1.1033499999999999E-3</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="6"/>
+        <v>0.4642</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="7"/>
+        <v>0.68130000000000002</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="8"/>
+        <v>574.20000000000005</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="9"/>
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="10"/>
+        <v>1020.19</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="11"/>
+        <v>604.41999999999996</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="12"/>
+        <v>2.9345E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25000</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="13"/>
+        <v>429.6</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>-30.1</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>-34.5</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="2"/>
+        <v>0.82820000000000005</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="3"/>
+        <v>0.37130000000000002</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="4"/>
+        <v>785.75</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="5"/>
+        <v>1.0655599999999999E-3</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="6"/>
+        <v>0.44829999999999998</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="7"/>
+        <v>0.66959999999999997</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="8"/>
+        <v>550</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="9"/>
+        <v>3.4299999999999997E-2</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="10"/>
+        <v>1016.06</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="11"/>
+        <v>601.97</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="12"/>
+        <v>3.0184999999999999E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26000</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="13"/>
+        <v>426</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>-33.700000000000003</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>-36.5</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
+        <v>0.82130000000000003</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="3"/>
+        <v>0.3553</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="4"/>
+        <v>751.89</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="5"/>
+        <v>1.02826E-3</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="6"/>
+        <v>0.43259999999999998</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="7"/>
+        <v>0.65769999999999995</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="8"/>
+        <v>526.29999999999995</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="9"/>
+        <v>3.3099999999999997E-2</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="10"/>
+        <v>1011.79</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="11"/>
+        <v>599.44000000000005</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="12"/>
+        <v>3.1065999999999998E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27000</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="13"/>
+        <v>422.4</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>-37.299999999999997</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>-38.5</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="2"/>
+        <v>0.81430000000000002</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="3"/>
+        <v>0.3397</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="4"/>
+        <v>718.88</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="5"/>
+        <v>9.9149000000000004E-4</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="6"/>
+        <v>0.41720000000000002</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="7"/>
+        <v>0.64590000000000003</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="8"/>
+        <v>503.2</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="9"/>
+        <v>3.1899999999999998E-2</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="10"/>
+        <v>1007.51</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="11"/>
+        <v>596.91</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="12"/>
+        <v>3.1995E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28000</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="13"/>
+        <v>418.9</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>-40.799999999999997</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>-40.4</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="2"/>
+        <v>0.80759999999999998</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="3"/>
+        <v>0.32519999999999999</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="4"/>
+        <v>688.19</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="5"/>
+        <v>9.5708999999999996E-4</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="6"/>
+        <v>0.4027</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="7"/>
+        <v>0.63460000000000005</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="8"/>
+        <v>481.7</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="9"/>
+        <v>3.0800000000000001E-2</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="10"/>
+        <v>1003.32</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="11"/>
+        <v>594.41999999999996</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="12"/>
+        <v>3.2918999999999998E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29000</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="13"/>
+        <v>415.3</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>-44.4</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>-42.4</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="2"/>
+        <v>0.80069999999999997</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="3"/>
+        <v>0.31090000000000001</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="4"/>
+        <v>657.93</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="5"/>
+        <v>9.2294000000000002E-4</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="6"/>
+        <v>0.38829999999999998</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="7"/>
+        <v>0.62309999999999999</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="8"/>
+        <v>460.6</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="9"/>
+        <v>2.9700000000000001E-2</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="10"/>
+        <v>999</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="11"/>
+        <v>591.86</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="12"/>
+        <v>3.3896000000000002E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30000</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="13"/>
+        <v>411.7</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>-48</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>-44.4</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="2"/>
+        <v>0.79369999999999996</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="3"/>
+        <v>0.2969</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="4"/>
+        <v>628.30999999999995</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="5"/>
+        <v>8.8909999999999998E-4</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="6"/>
+        <v>0.37409999999999999</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="7"/>
+        <v>0.61160000000000003</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="8"/>
+        <v>439.8</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="9"/>
+        <v>2.86E-2</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="10"/>
+        <v>994.66</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="11"/>
+        <v>589.29</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="12"/>
+        <v>3.4934000000000001E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31000</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="13"/>
+        <v>408.2</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>-51.5</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>-46.4</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="2"/>
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="3"/>
+        <v>0.28389999999999999</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="4"/>
+        <v>600.79</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="5"/>
+        <v>8.5744E-4</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="6"/>
+        <v>0.36070000000000002</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="7"/>
+        <v>0.60060000000000002</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="8"/>
+        <v>420.6</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="9"/>
+        <v>2.76E-2</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="10"/>
+        <v>990.43</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="11"/>
+        <v>586.79</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="12"/>
+        <v>3.5969000000000002E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32000</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="13"/>
+        <v>404.6</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>-55.1</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>-48.4</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="2"/>
+        <v>0.78</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="3"/>
+        <v>0.27089999999999997</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="4"/>
+        <v>573.28</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="5"/>
+        <v>8.2545999999999997E-4</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="6"/>
+        <v>0.3473</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="7"/>
+        <v>0.58930000000000005</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="8"/>
+        <v>401.3</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="9"/>
+        <v>2.6599999999999999E-2</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="10"/>
+        <v>986.05</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="11"/>
+        <v>584.19000000000005</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="12"/>
+        <v>3.7090000000000002E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33000</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="13"/>
+        <v>401</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>-58.7</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>-50.4</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="2"/>
+        <v>0.77310000000000001</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="3"/>
+        <v>0.25850000000000001</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="4"/>
+        <v>547.04</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="5"/>
+        <v>7.9474999999999999E-4</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="6"/>
+        <v>0.33439999999999998</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="7"/>
+        <v>0.57830000000000004</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="8"/>
+        <v>382.9</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="9"/>
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="10"/>
+        <v>981.65</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="11"/>
+        <v>581.58000000000004</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="12"/>
+        <v>3.8237999999999998E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34000</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="13"/>
+        <v>397.5</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>-62.2</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>-52.3</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="2"/>
+        <v>0.76629999999999998</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="3"/>
+        <v>0.24679999999999999</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="4"/>
+        <v>522.28</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="5"/>
+        <v>7.6546000000000003E-4</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="6"/>
+        <v>0.3221</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="7"/>
+        <v>0.5675</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="8"/>
+        <v>365.6</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="9"/>
+        <v>2.46E-2</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="10"/>
+        <v>977.36</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="11"/>
+        <v>579.04</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="12"/>
+        <v>3.9413000000000002E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35000</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="13"/>
+        <v>393.9</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>-65.8</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>-54.3</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="2"/>
+        <v>0.75939999999999996</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="3"/>
+        <v>0.2354</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="4"/>
+        <v>498.16</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="5"/>
+        <v>7.3678000000000003E-4</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="6"/>
+        <v>0.31</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="7"/>
+        <v>0.55679999999999996</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="8"/>
+        <v>348.7</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="9"/>
+        <v>2.3699999999999999E-2</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="10"/>
+        <v>972.92</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="11"/>
+        <v>576.41</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="12"/>
+        <v>4.0636999999999997E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36000</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="13"/>
+        <v>390.3</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>-69.400000000000006</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>-56.3</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="2"/>
+        <v>0.75249999999999995</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="3"/>
+        <v>0.2243</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="4"/>
+        <v>474.67</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="5"/>
+        <v>7.0852000000000003E-4</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="6"/>
+        <v>0.29809999999999998</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="7"/>
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="8"/>
+        <v>332.3</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="9"/>
+        <v>2.2800000000000001E-2</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="10"/>
+        <v>968.47</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="11"/>
+        <v>573.78</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="12"/>
+        <v>4.1934999999999997E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37000</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="13"/>
+        <v>390</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>-69.7</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>-56.5</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="2"/>
+        <v>0.75190000000000001</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="3"/>
+        <v>0.21379999999999999</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="4"/>
+        <v>452.45</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="5"/>
+        <v>6.7586999999999996E-4</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="6"/>
+        <v>0.2843</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="7"/>
+        <v>0.53320000000000001</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="8"/>
+        <v>316.7</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="9"/>
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="10"/>
+        <v>968.1</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="11"/>
+        <v>573.55999999999995</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="12"/>
+        <v>4.3931999999999999E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38000</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="13"/>
+        <v>390</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>-69.7</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>-56.5</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="2"/>
+        <v>0.75190000000000001</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="3"/>
+        <v>0.20369999999999999</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="4"/>
+        <v>431.07</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="5"/>
+        <v>6.4393000000000002E-4</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="6"/>
+        <v>0.27089999999999997</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="7"/>
+        <v>0.52049999999999996</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="8"/>
+        <v>301.8</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="9"/>
+        <v>2.07E-2</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="10"/>
+        <v>968.1</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="11"/>
+        <v>573.55999999999995</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="12"/>
+        <v>4.6110999999999998E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39000</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="13"/>
+        <v>390</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>-69.7</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>-56.5</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="2"/>
+        <v>0.75190000000000001</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="3"/>
+        <v>0.19420000000000001</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="4"/>
+        <v>410.97</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="5"/>
+        <v>6.1390999999999995E-4</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="6"/>
+        <v>0.25829999999999997</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="7"/>
+        <v>0.50819999999999999</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="8"/>
+        <v>287.7</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="9"/>
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="10"/>
+        <v>968.1</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="11"/>
+        <v>573.55999999999995</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="12"/>
+        <v>4.8366000000000001E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40000</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="13"/>
+        <v>390</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>-69.7</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>-56.5</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="2"/>
+        <v>0.75190000000000001</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="3"/>
+        <v>0.18509999999999999</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="4"/>
+        <v>391.71</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="5"/>
+        <v>5.8514000000000005E-4</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="6"/>
+        <v>0.2462</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="7"/>
+        <v>0.49619999999999997</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="8"/>
+        <v>274.2</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="9"/>
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="10"/>
+        <v>968.1</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="11"/>
+        <v>573.55999999999995</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="12"/>
+        <v>5.0743999999999995E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41000</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="13"/>
+        <v>390</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>-69.7</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>-56.5</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="2"/>
+        <v>0.75190000000000001</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="3"/>
+        <v>0.1764</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="4"/>
+        <v>373.3</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="5"/>
+        <v>5.5763000000000004E-4</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="6"/>
+        <v>0.2346</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="7"/>
+        <v>0.4844</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="8"/>
+        <v>261.3</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="9"/>
+        <v>1.7899999999999999E-2</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="10"/>
+        <v>968.1</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="11"/>
+        <v>573.55999999999995</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="12"/>
+        <v>5.3248E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42000</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="13"/>
+        <v>390</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>-69.7</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>-56.5</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="2"/>
+        <v>0.75190000000000001</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="3"/>
+        <v>0.1681</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="4"/>
+        <v>355.74</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="5"/>
+        <v>5.3140000000000001E-4</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="6"/>
+        <v>0.22359999999999999</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="7"/>
+        <v>0.47289999999999999</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="8"/>
+        <v>249</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="9"/>
+        <v>1.7100000000000001E-2</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="10"/>
+        <v>968.1</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="11"/>
+        <v>573.55999999999995</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="12"/>
+        <v>5.5876000000000005E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43000</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="13"/>
+        <v>390</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>-69.7</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>-56.5</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="2"/>
+        <v>0.75190000000000001</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="3"/>
+        <v>0.16020000000000001</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="4"/>
+        <v>339.02</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="5"/>
+        <v>5.0642999999999999E-4</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="6"/>
+        <v>0.21310000000000001</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="7"/>
+        <v>0.46160000000000001</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="8"/>
+        <v>237.3</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="9"/>
+        <v>1.6299999999999999E-2</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="10"/>
+        <v>968.1</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="11"/>
+        <v>573.55999999999995</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="12"/>
+        <v>5.8631000000000004E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44000</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="13"/>
+        <v>390</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>-69.7</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="1"/>
+        <v>-56.5</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="2"/>
+        <v>0.75190000000000001</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="3"/>
+        <v>0.1527</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="4"/>
+        <v>323.14999999999998</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="5"/>
+        <v>4.8272000000000001E-4</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="6"/>
+        <v>0.2031</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="7"/>
+        <v>0.45069999999999999</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="8"/>
+        <v>226.2</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="9"/>
+        <v>1.55E-2</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="10"/>
+        <v>968.1</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="11"/>
+        <v>573.55999999999995</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="12"/>
+        <v>6.1510999999999998E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45000</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="13"/>
+        <v>390</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>-69.7</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="1"/>
+        <v>-56.5</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="2"/>
+        <v>0.75190000000000001</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="3"/>
+        <v>0.14549999999999999</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="4"/>
+        <v>307.91000000000003</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="5"/>
+        <v>4.5995999999999998E-4</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="6"/>
+        <v>0.19350000000000001</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="7"/>
+        <v>0.43990000000000001</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="8"/>
+        <v>215.5</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="9"/>
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="10"/>
+        <v>968.1</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="11"/>
+        <v>573.55999999999995</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="12"/>
+        <v>6.4554E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>46000</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="13"/>
+        <v>390</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>-69.7</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="1"/>
+        <v>-56.5</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="2"/>
+        <v>0.75190000000000001</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="3"/>
+        <v>0.13869999999999999</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="4"/>
+        <v>293.52</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="5"/>
+        <v>4.3846E-4</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="6"/>
+        <v>0.1845</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="7"/>
+        <v>0.42949999999999999</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="8"/>
+        <v>205.5</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="9"/>
+        <v>1.41E-2</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="10"/>
+        <v>968.1</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="11"/>
+        <v>573.55999999999995</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="12"/>
+        <v>6.7719999999999998E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>47000</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="13"/>
+        <v>390</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>-69.7</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="1"/>
+        <v>-56.5</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="2"/>
+        <v>0.75190000000000001</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="3"/>
+        <v>0.13220000000000001</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="4"/>
+        <v>279.76</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="5"/>
+        <v>4.1790000000000002E-4</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="6"/>
+        <v>0.17580000000000001</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="7"/>
+        <v>0.41930000000000001</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="8"/>
+        <v>195.8</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="9"/>
+        <v>1.34E-2</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="10"/>
+        <v>968.1</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="11"/>
+        <v>573.55999999999995</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="12"/>
+        <v>7.1051000000000003E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>48000</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="13"/>
+        <v>390</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>-69.7</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="1"/>
+        <v>-56.5</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="2"/>
+        <v>0.75190000000000001</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="3"/>
+        <v>0.12590000000000001</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="4"/>
+        <v>266.43</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="5"/>
+        <v>3.9798999999999998E-4</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="6"/>
+        <v>0.16739999999999999</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="7"/>
+        <v>0.40910000000000002</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="8"/>
+        <v>186.5</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="9"/>
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="10"/>
+        <v>968.1</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="11"/>
+        <v>573.55999999999995</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="12"/>
+        <v>7.4606E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>49000</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="13"/>
+        <v>390</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>-69.7</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="1"/>
+        <v>-56.5</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="2"/>
+        <v>0.75190000000000001</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="3"/>
+        <v>0.12</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="4"/>
+        <v>253.95</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="5"/>
+        <v>3.7934999999999998E-4</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="6"/>
+        <v>0.15959999999999999</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="7"/>
+        <v>0.39950000000000002</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="8"/>
+        <v>177.8</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="9"/>
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="10"/>
+        <v>968.1</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="11"/>
+        <v>573.55999999999995</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="12"/>
+        <v>7.8271999999999999E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>50000</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="13"/>
+        <v>390</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>-69.7</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="1"/>
+        <v>-56.5</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="2"/>
+        <v>0.75190000000000001</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="3"/>
+        <v>0.1144</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="4"/>
+        <v>242.1</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="5"/>
+        <v>3.6164999999999998E-4</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="6"/>
+        <v>0.15210000000000001</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="7"/>
+        <v>0.39</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="8"/>
+        <v>169.5</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="9"/>
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="10"/>
+        <v>968.1</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="11"/>
+        <v>573.55999999999995</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="12"/>
+        <v>8.2103000000000005E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>51000</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="13"/>
+        <v>390</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>-69.7</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="1"/>
+        <v>-56.5</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="2"/>
+        <v>0.75190000000000001</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="3"/>
+        <v>0.109</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="4"/>
+        <v>230.67</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="5"/>
+        <v>3.4456999999999999E-4</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="6"/>
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="7"/>
+        <v>0.38080000000000003</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="8"/>
+        <v>161.5</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="9"/>
+        <v>1.11E-2</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="10"/>
+        <v>968.1</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="11"/>
+        <v>573.55999999999995</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="12"/>
+        <v>8.6171999999999996E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>52000</v>
+      </c>
+      <c r="B54">
+        <f>ROUND(IF(A54&lt;36089,$B$2-(3.566*(A54/1000)),389.99),1)</f>
+        <v>390</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>-69.7</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="1"/>
+        <v>-56.5</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="2"/>
+        <v>0.75190000000000001</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="3"/>
+        <v>0.10390000000000001</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="4"/>
+        <v>219.88</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="5"/>
+        <v>3.2845999999999998E-4</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="6"/>
+        <v>0.13819999999999999</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="7"/>
+        <v>0.37180000000000002</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="8"/>
+        <v>153.9</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="9"/>
+        <v>1.06E-2</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="10"/>
+        <v>968.1</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="11"/>
+        <v>573.55999999999995</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="12"/>
+        <v>9.0399000000000002E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>53000</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="13"/>
+        <v>390</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>-69.7</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="1"/>
+        <v>-56.5</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="2"/>
+        <v>0.75190000000000001</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="3"/>
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="4"/>
+        <v>209.51</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="5"/>
+        <v>3.1296999999999998E-4</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="6"/>
+        <v>0.13170000000000001</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="7"/>
+        <v>0.3629</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="8"/>
+        <v>146.69999999999999</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="9"/>
+        <v>1.01E-2</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="10"/>
+        <v>968.1</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="11"/>
+        <v>573.55999999999995</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="12"/>
+        <v>9.4872999999999995E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>54000</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="13"/>
+        <v>390</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>-69.7</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="1"/>
+        <v>-56.5</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="2"/>
+        <v>0.75190000000000001</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="3"/>
+        <v>9.4399999999999998E-2</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="4"/>
+        <v>199.77</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="5"/>
+        <v>2.9841999999999998E-4</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="6"/>
+        <v>0.1255</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="7"/>
+        <v>0.3543</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="8"/>
+        <v>139.80000000000001</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="9"/>
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="10"/>
+        <v>968.1</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="11"/>
+        <v>573.55999999999995</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="12"/>
+        <v>9.9499000000000007E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>55000</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="13"/>
+        <v>390</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>-69.7</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="1"/>
+        <v>-56.5</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="2"/>
+        <v>0.75190000000000001</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="3"/>
+        <v>8.9899999999999994E-2</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="4"/>
+        <v>190.25</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="5"/>
+        <v>2.8418999999999997E-4</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="6"/>
+        <v>0.1196</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="7"/>
+        <v>0.3458</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="8"/>
+        <v>133.19999999999999</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="9"/>
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="10"/>
+        <v>968.1</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="11"/>
+        <v>573.55999999999995</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="12"/>
+        <v>1.04481E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>56000</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="13"/>
+        <v>390</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>-69.7</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="1"/>
+        <v>-56.5</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="2"/>
+        <v>0.75190000000000001</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="3"/>
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="4"/>
+        <v>181.36</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="5"/>
+        <v>2.7092000000000001E-4</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="6"/>
+        <v>0.114</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="7"/>
+        <v>0.33760000000000001</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="8"/>
+        <v>127</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="9"/>
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="10"/>
+        <v>968.1</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="11"/>
+        <v>573.55999999999995</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="12"/>
+        <v>1.0959800000000001E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>57000</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="13"/>
+        <v>390</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>-69.7</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="1"/>
+        <v>-56.5</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="2"/>
+        <v>0.75190000000000001</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="3"/>
+        <v>8.1699999999999995E-2</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="4"/>
+        <v>172.9</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="5"/>
+        <v>2.5828E-4</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="6"/>
+        <v>0.1087</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="7"/>
+        <v>0.32969999999999999</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="8"/>
+        <v>121</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="9"/>
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="10"/>
+        <v>968.1</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="11"/>
+        <v>573.55999999999995</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="12"/>
+        <v>1.1496200000000001E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>58000</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="13"/>
+        <v>390</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>-69.7</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="1"/>
+        <v>-56.5</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="2"/>
+        <v>0.75190000000000001</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="3"/>
+        <v>7.7899999999999997E-2</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="4"/>
+        <v>164.85</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="5"/>
+        <v>2.4625E-4</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="6"/>
+        <v>0.1036</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="7"/>
+        <v>0.32190000000000002</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="8"/>
+        <v>115.4</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="9"/>
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="10"/>
+        <v>968.1</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="11"/>
+        <v>573.55999999999995</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="12"/>
+        <v>1.20578E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>59000</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="13"/>
+        <v>390</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>-69.7</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="1"/>
+        <v>-56.5</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="2"/>
+        <v>0.75190000000000001</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="3"/>
+        <v>7.4200000000000002E-2</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="4"/>
+        <v>157.02000000000001</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="5"/>
+        <v>2.3456E-4</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="6"/>
+        <v>9.8699999999999996E-2</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="7"/>
+        <v>0.31419999999999998</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="8"/>
+        <v>109.9</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="9"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="10"/>
+        <v>968.1</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="11"/>
+        <v>573.55999999999995</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="12"/>
+        <v>1.26588E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>60000</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="13"/>
+        <v>390</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>-69.7</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="1"/>
+        <v>-56.5</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="2"/>
+        <v>0.75190000000000001</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="3"/>
+        <v>7.0699999999999999E-2</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="4"/>
+        <v>149.62</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="5"/>
+        <v>2.2350000000000001E-4</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="6"/>
+        <v>9.4E-2</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="7"/>
+        <v>0.30659999999999998</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="8"/>
+        <v>104.7</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="9"/>
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="10"/>
+        <v>968.1</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="11"/>
+        <v>573.55999999999995</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="12"/>
+        <v>1.3285199999999999E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7108AE07-0522-4FF8-BE28-94E2528BD5CD}">
+  <dimension ref="B1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="16">
+        <v>10000</v>
+      </c>
+      <c r="C5" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="D5" s="16">
+        <v>450</v>
+      </c>
+      <c r="E5" s="20">
+        <f>_xlfn.XLOOKUP(B5,'Question 1'!A:A,'Question 1'!N:N)</f>
+        <v>638.29</v>
+      </c>
+      <c r="F5" s="20">
+        <f>_xlfn.XLOOKUP(B5,'Question 1'!A:A,'Question 1'!J:J)</f>
+        <v>0.85919999999999996</v>
+      </c>
+      <c r="G5" s="20">
+        <f>ROUND((C5*E5),1)</f>
+        <v>510.6</v>
+      </c>
+      <c r="H5" s="14">
+        <f>ROUND((G5*F5),1)</f>
+        <v>438.7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="16">
+        <v>25000</v>
+      </c>
+      <c r="C6" s="18">
+        <v>0.6</v>
+      </c>
+      <c r="D6" s="16">
+        <v>250</v>
+      </c>
+      <c r="E6" s="20">
+        <f>_xlfn.XLOOKUP(B6,'Question 1'!A:A,'Question 1'!N:N)</f>
+        <v>601.97</v>
+      </c>
+      <c r="F6" s="20">
+        <f>_xlfn.XLOOKUP(B6,'Question 1'!A:A,'Question 1'!J:J)</f>
+        <v>0.66959999999999997</v>
+      </c>
+      <c r="G6" s="20">
+        <f t="shared" ref="G6:G7" si="0">ROUND((C6*E6),1)</f>
+        <v>361.2</v>
+      </c>
+      <c r="H6" s="14">
+        <f t="shared" ref="H6:H7" si="1">ROUND((G6*F6),1)</f>
+        <v>241.9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="17">
+        <v>30000</v>
+      </c>
+      <c r="C7" s="19">
+        <v>0.9</v>
+      </c>
+      <c r="D7" s="17">
+        <v>350</v>
+      </c>
+      <c r="E7" s="20">
+        <f>_xlfn.XLOOKUP(B7,'Question 1'!A:A,'Question 1'!N:N)</f>
+        <v>589.29</v>
+      </c>
+      <c r="F7" s="20">
+        <f>_xlfn.XLOOKUP(B7,'Question 1'!A:A,'Question 1'!J:J)</f>
+        <v>0.61160000000000003</v>
+      </c>
+      <c r="G7" s="20">
+        <f t="shared" si="0"/>
+        <v>530.4</v>
+      </c>
+      <c r="H7" s="14">
+        <f t="shared" si="1"/>
+        <v>324.39999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06FE14A0-DAA5-4ACC-8402-5D4FD97B9632}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{447ED9DD-A5A4-435B-A455-1C4478510EB9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0487F4CF-9D5C-4589-8C1E-FCCAF4450638}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>